--- a/data_month/zb/国内贸易/网上零售额.xlsx
+++ b/data_month/zb/国内贸易/网上零售额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,1237 +469,1511 @@
           <t>网上零售额_累计增长</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>实物商品网上零售额</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>网上零售额</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.1</v>
+        <v>57.3</v>
       </c>
       <c r="C2" t="n">
-        <v>54140.7</v>
+        <v>9073.200000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>26.7</v>
+        <v>35.6</v>
       </c>
       <c r="E2" t="n">
-        <v>27.2</v>
+        <v>33.1</v>
       </c>
       <c r="F2" t="n">
-        <v>22.5</v>
+        <v>36.8</v>
       </c>
       <c r="G2" t="n">
-        <v>70539.10000000001</v>
+        <v>12271.3</v>
       </c>
       <c r="H2" t="n">
-        <v>25.5</v>
+        <v>37.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9073.200000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12271.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.3</v>
+        <v>46.5</v>
       </c>
       <c r="C3" t="n">
-        <v>62710.3</v>
+        <v>14567.1</v>
       </c>
       <c r="D3" t="n">
-        <v>25.4</v>
+        <v>34.4</v>
       </c>
       <c r="E3" t="n">
-        <v>25.8</v>
+        <v>33.3</v>
       </c>
       <c r="F3" t="n">
-        <v>21.2</v>
+        <v>33.9</v>
       </c>
       <c r="G3" t="n">
-        <v>80688.60000000001</v>
+        <v>19318.5</v>
       </c>
       <c r="H3" t="n">
-        <v>24.1</v>
+        <v>35.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5493.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7047.200000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.8</v>
+        <v>44.9</v>
       </c>
       <c r="C4" t="n">
-        <v>70198.2</v>
+        <v>19494.9</v>
       </c>
       <c r="D4" t="n">
-        <v>25.4</v>
+        <v>31.2</v>
       </c>
       <c r="E4" t="n">
-        <v>25.9</v>
+        <v>31.1</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n">
-        <v>90065</v>
+        <v>25791.5</v>
       </c>
       <c r="H4" t="n">
-        <v>23.9</v>
+        <v>32.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4927.800000000001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57.3</v>
+        <v>42.4</v>
       </c>
       <c r="C5" t="n">
-        <v>9073.200000000001</v>
+        <v>24819</v>
       </c>
       <c r="D5" t="n">
-        <v>35.6</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>33.1</v>
+        <v>30.7</v>
       </c>
       <c r="F5" t="n">
-        <v>36.8</v>
+        <v>24.9</v>
       </c>
       <c r="G5" t="n">
-        <v>12271.3</v>
+        <v>32690.6</v>
       </c>
       <c r="H5" t="n">
-        <v>37.3</v>
+        <v>30.7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5324.099999999999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6899.099999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.5</v>
+        <v>42.3</v>
       </c>
       <c r="C6" t="n">
-        <v>14567.1</v>
+        <v>31276.6</v>
       </c>
       <c r="D6" t="n">
-        <v>34.4</v>
+        <v>29.8</v>
       </c>
       <c r="E6" t="n">
-        <v>33.3</v>
+        <v>30.7</v>
       </c>
       <c r="F6" t="n">
-        <v>33.9</v>
+        <v>24.1</v>
       </c>
       <c r="G6" t="n">
-        <v>19318.5</v>
+        <v>40810</v>
       </c>
       <c r="H6" t="n">
-        <v>35.4</v>
+        <v>30.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6457.599999999999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8119.400000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.9</v>
+        <v>41.6</v>
       </c>
       <c r="C7" t="n">
-        <v>19494.9</v>
+        <v>36460.9</v>
       </c>
       <c r="D7" t="n">
-        <v>31.2</v>
+        <v>29.1</v>
       </c>
       <c r="E7" t="n">
-        <v>31.1</v>
+        <v>29.7</v>
       </c>
       <c r="F7" t="n">
-        <v>28</v>
+        <v>23.9</v>
       </c>
       <c r="G7" t="n">
-        <v>25791.5</v>
+        <v>47862.7</v>
       </c>
       <c r="H7" t="n">
-        <v>32.4</v>
+        <v>29.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5184.300000000003</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7052.699999999997</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.4</v>
+        <v>42.7</v>
       </c>
       <c r="C8" t="n">
-        <v>24819</v>
+        <v>41993.1</v>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="E8" t="n">
-        <v>30.7</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>24.9</v>
+        <v>23.4</v>
       </c>
       <c r="G8" t="n">
-        <v>32690.6</v>
+        <v>55195.5</v>
       </c>
       <c r="H8" t="n">
-        <v>30.7</v>
+        <v>28.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5532.199999999997</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7332.800000000003</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42.3</v>
+        <v>43.8</v>
       </c>
       <c r="C9" t="n">
-        <v>31276.6</v>
+        <v>47937.7</v>
       </c>
       <c r="D9" t="n">
-        <v>29.8</v>
+        <v>27.7</v>
       </c>
       <c r="E9" t="n">
-        <v>30.7</v>
+        <v>27.7</v>
       </c>
       <c r="F9" t="n">
-        <v>24.1</v>
+        <v>23.3</v>
       </c>
       <c r="G9" t="n">
-        <v>40810</v>
+        <v>62784.6</v>
       </c>
       <c r="H9" t="n">
-        <v>30.1</v>
+        <v>27</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5944.599999999999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7589.099999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.6</v>
+        <v>36.1</v>
       </c>
       <c r="C10" t="n">
-        <v>36460.9</v>
+        <v>54140.7</v>
       </c>
       <c r="D10" t="n">
-        <v>29.1</v>
+        <v>26.7</v>
       </c>
       <c r="E10" t="n">
-        <v>29.7</v>
+        <v>27.2</v>
       </c>
       <c r="F10" t="n">
-        <v>23.9</v>
+        <v>22.5</v>
       </c>
       <c r="G10" t="n">
-        <v>47862.7</v>
+        <v>70539.10000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>29.3</v>
+        <v>25.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6203</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7754.500000000007</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.7</v>
+        <v>36.3</v>
       </c>
       <c r="C11" t="n">
-        <v>41993.1</v>
+        <v>62710.3</v>
       </c>
       <c r="D11" t="n">
-        <v>28.6</v>
+        <v>25.4</v>
       </c>
       <c r="E11" t="n">
-        <v>29</v>
+        <v>25.8</v>
       </c>
       <c r="F11" t="n">
-        <v>23.4</v>
+        <v>21.2</v>
       </c>
       <c r="G11" t="n">
-        <v>55195.5</v>
+        <v>80688.60000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>28.2</v>
+        <v>24.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8569.600000000006</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10149.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.8</v>
+        <v>33.8</v>
       </c>
       <c r="C12" t="n">
-        <v>47937.7</v>
+        <v>70198.2</v>
       </c>
       <c r="D12" t="n">
-        <v>27.7</v>
+        <v>25.4</v>
       </c>
       <c r="E12" t="n">
-        <v>27.7</v>
+        <v>25.9</v>
       </c>
       <c r="F12" t="n">
-        <v>23.3</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>62784.6</v>
+        <v>90065</v>
       </c>
       <c r="H12" t="n">
-        <v>27</v>
+        <v>23.9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7487.899999999994</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9376.399999999994</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.8</v>
+        <v>20.2</v>
       </c>
       <c r="C13" t="n">
-        <v>65172.2</v>
+        <v>10901</v>
       </c>
       <c r="D13" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="E13" t="n">
-        <v>16.6</v>
+        <v>20.8</v>
       </c>
       <c r="F13" t="n">
-        <v>7.1</v>
+        <v>15.6</v>
       </c>
       <c r="G13" t="n">
-        <v>82307.10000000001</v>
+        <v>13982.8</v>
       </c>
       <c r="H13" t="n">
-        <v>16.4</v>
+        <v>13.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10901</v>
+      </c>
+      <c r="J13" t="n">
+        <v>13982.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.6</v>
+        <v>24.6</v>
       </c>
       <c r="C14" t="n">
-        <v>76032.3</v>
+        <v>17772</v>
       </c>
       <c r="D14" t="n">
-        <v>19.7</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>19.8</v>
+        <v>21.3</v>
       </c>
       <c r="F14" t="n">
-        <v>16.5</v>
+        <v>19.1</v>
       </c>
       <c r="G14" t="n">
-        <v>94957.8</v>
+        <v>22378.7</v>
       </c>
       <c r="H14" t="n">
-        <v>16.6</v>
+        <v>15.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6871</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8395.900000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.9</v>
+        <v>26.7</v>
       </c>
       <c r="C15" t="n">
-        <v>85239.5</v>
+        <v>23933.2</v>
       </c>
       <c r="D15" t="n">
-        <v>19.5</v>
+        <v>22.2</v>
       </c>
       <c r="E15" t="n">
-        <v>19.8</v>
+        <v>21.2</v>
       </c>
       <c r="F15" t="n">
-        <v>15.4</v>
+        <v>23.7</v>
       </c>
       <c r="G15" t="n">
-        <v>106324.2</v>
+        <v>30439.3</v>
       </c>
       <c r="H15" t="n">
-        <v>16.5</v>
+        <v>17.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6161.200000000001</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8060.599999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.2</v>
+        <v>28.5</v>
       </c>
       <c r="C16" t="n">
-        <v>10901</v>
+        <v>30414.5</v>
       </c>
       <c r="D16" t="n">
-        <v>19.5</v>
+        <v>21.7</v>
       </c>
       <c r="E16" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="F16" t="n">
-        <v>15.6</v>
+        <v>21.2</v>
       </c>
       <c r="G16" t="n">
-        <v>13982.8</v>
+        <v>38641.3</v>
       </c>
       <c r="H16" t="n">
-        <v>13.6</v>
+        <v>17.8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6481.299999999999</v>
+      </c>
+      <c r="J16" t="n">
+        <v>8202.000000000004</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24.6</v>
+        <v>29.3</v>
       </c>
       <c r="C17" t="n">
-        <v>17772</v>
+        <v>38164.9</v>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>21.6</v>
       </c>
       <c r="E17" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="F17" t="n">
-        <v>19.1</v>
+        <v>21.4</v>
       </c>
       <c r="G17" t="n">
-        <v>22378.7</v>
+        <v>48160.6</v>
       </c>
       <c r="H17" t="n">
-        <v>15.3</v>
+        <v>17.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7750.400000000001</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9519.299999999996</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26.7</v>
+        <v>29.9</v>
       </c>
       <c r="C18" t="n">
-        <v>23933.2</v>
+        <v>44233.3</v>
       </c>
       <c r="D18" t="n">
-        <v>22.2</v>
+        <v>20.9</v>
       </c>
       <c r="E18" t="n">
-        <v>21.2</v>
+        <v>20.2</v>
       </c>
       <c r="F18" t="n">
-        <v>23.7</v>
+        <v>20.4</v>
       </c>
       <c r="G18" t="n">
-        <v>30439.3</v>
+        <v>55972.5</v>
       </c>
       <c r="H18" t="n">
-        <v>17.8</v>
+        <v>16.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6068.400000000001</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7811.900000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.5</v>
+        <v>30.6</v>
       </c>
       <c r="C19" t="n">
-        <v>30414.5</v>
+        <v>50745.5</v>
       </c>
       <c r="D19" t="n">
-        <v>21.7</v>
+        <v>20.8</v>
       </c>
       <c r="E19" t="n">
-        <v>21.2</v>
+        <v>20.2</v>
       </c>
       <c r="F19" t="n">
-        <v>21.2</v>
+        <v>19.7</v>
       </c>
       <c r="G19" t="n">
-        <v>38641.3</v>
+        <v>64393</v>
       </c>
       <c r="H19" t="n">
-        <v>17.8</v>
+        <v>16.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6512.199999999997</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8420.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="C20" t="n">
-        <v>38164.9</v>
+        <v>57776.9</v>
       </c>
       <c r="D20" t="n">
-        <v>21.6</v>
+        <v>20.5</v>
       </c>
       <c r="E20" t="n">
-        <v>20.9</v>
+        <v>20.3</v>
       </c>
       <c r="F20" t="n">
-        <v>21.4</v>
+        <v>18.6</v>
       </c>
       <c r="G20" t="n">
-        <v>48160.6</v>
+        <v>73237</v>
       </c>
       <c r="H20" t="n">
-        <v>17.8</v>
+        <v>16.8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7031.400000000001</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8844</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29.9</v>
+        <v>34.8</v>
       </c>
       <c r="C21" t="n">
-        <v>44233.3</v>
+        <v>65172.2</v>
       </c>
       <c r="D21" t="n">
-        <v>20.9</v>
+        <v>19.8</v>
       </c>
       <c r="E21" t="n">
-        <v>20.2</v>
+        <v>16.6</v>
       </c>
       <c r="F21" t="n">
-        <v>20.4</v>
+        <v>7.1</v>
       </c>
       <c r="G21" t="n">
-        <v>55972.5</v>
+        <v>82307.10000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>16.8</v>
+        <v>16.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7395.299999999996</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9070.100000000006</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.6</v>
+        <v>29.6</v>
       </c>
       <c r="C22" t="n">
-        <v>50745.5</v>
+        <v>76032.3</v>
       </c>
       <c r="D22" t="n">
-        <v>20.8</v>
+        <v>19.7</v>
       </c>
       <c r="E22" t="n">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="F22" t="n">
-        <v>19.7</v>
+        <v>16.5</v>
       </c>
       <c r="G22" t="n">
-        <v>64393</v>
+        <v>94957.8</v>
       </c>
       <c r="H22" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10860.10000000001</v>
+      </c>
+      <c r="J22" t="n">
+        <v>12650.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>28.9</v>
+        <v>30.9</v>
       </c>
       <c r="C23" t="n">
-        <v>57776.9</v>
+        <v>85239.5</v>
       </c>
       <c r="D23" t="n">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
       <c r="E23" t="n">
-        <v>20.3</v>
+        <v>19.8</v>
       </c>
       <c r="F23" t="n">
-        <v>18.6</v>
+        <v>15.4</v>
       </c>
       <c r="G23" t="n">
-        <v>73237</v>
+        <v>106324.2</v>
       </c>
       <c r="H23" t="n">
-        <v>16.8</v>
+        <v>16.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9207.199999999997</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11366.39999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>34.3</v>
+        <v>26.4</v>
       </c>
       <c r="C24" t="n">
-        <v>75619.3</v>
+        <v>11233.2</v>
       </c>
       <c r="D24" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>17.4</v>
+        <v>7.5</v>
       </c>
       <c r="F24" t="n">
-        <v>5.6</v>
+        <v>-18.1</v>
       </c>
       <c r="G24" t="n">
-        <v>91275.3</v>
+        <v>13712</v>
       </c>
       <c r="H24" t="n">
-        <v>10.9</v>
+        <v>-3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>11233.2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>13712</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="C25" t="n">
-        <v>87792</v>
+        <v>18535.7</v>
       </c>
       <c r="D25" t="n">
-        <v>15.7</v>
+        <v>5.9</v>
       </c>
       <c r="E25" t="n">
-        <v>17.1</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>5.9</v>
+        <v>-15.1</v>
       </c>
       <c r="G25" t="n">
-        <v>105374.1</v>
+        <v>22168.8</v>
       </c>
       <c r="H25" t="n">
-        <v>11.5</v>
+        <v>-0.8</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7302.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8456.799999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>30.6</v>
+        <v>36.7</v>
       </c>
       <c r="C26" t="n">
-        <v>97590.3</v>
+        <v>25751</v>
       </c>
       <c r="D26" t="n">
-        <v>14.8</v>
+        <v>8.6</v>
       </c>
       <c r="E26" t="n">
-        <v>16.2</v>
+        <v>12.4</v>
       </c>
       <c r="F26" t="n">
-        <v>5.8</v>
+        <v>-12</v>
       </c>
       <c r="G26" t="n">
-        <v>117601.3</v>
+        <v>30698</v>
       </c>
       <c r="H26" t="n">
-        <v>10.9</v>
+        <v>1.7</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7215.299999999999</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8529.200000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26.4</v>
+        <v>37</v>
       </c>
       <c r="C27" t="n">
-        <v>11233.2</v>
+        <v>33738.8</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="E27" t="n">
-        <v>7.5</v>
+        <v>14.9</v>
       </c>
       <c r="F27" t="n">
-        <v>-18.1</v>
+        <v>-6.8</v>
       </c>
       <c r="G27" t="n">
-        <v>13712</v>
+        <v>40175.8</v>
       </c>
       <c r="H27" t="n">
-        <v>-3</v>
+        <v>4.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7987.800000000003</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9477.800000000003</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.7</v>
+        <v>38.8</v>
       </c>
       <c r="C28" t="n">
-        <v>18535.7</v>
+        <v>43480.7</v>
       </c>
       <c r="D28" t="n">
-        <v>5.9</v>
+        <v>14.3</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>17.3</v>
       </c>
       <c r="F28" t="n">
-        <v>-15.1</v>
+        <v>-2.9</v>
       </c>
       <c r="G28" t="n">
-        <v>22168.8</v>
+        <v>51500.9</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.8</v>
+        <v>7.3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9741.899999999994</v>
+      </c>
+      <c r="J28" t="n">
+        <v>11325.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>36.7</v>
+        <v>38.2</v>
       </c>
       <c r="C29" t="n">
-        <v>25751</v>
+        <v>51017.6</v>
       </c>
       <c r="D29" t="n">
-        <v>8.6</v>
+        <v>15.7</v>
       </c>
       <c r="E29" t="n">
-        <v>12.4</v>
+        <v>18.6</v>
       </c>
       <c r="F29" t="n">
-        <v>-12</v>
+        <v>-0.9</v>
       </c>
       <c r="G29" t="n">
-        <v>30698</v>
+        <v>60785.1</v>
       </c>
       <c r="H29" t="n">
-        <v>1.7</v>
+        <v>9</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7536.900000000001</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9284.199999999997</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>37</v>
+        <v>35.4</v>
       </c>
       <c r="C30" t="n">
-        <v>33738.8</v>
+        <v>58650.7</v>
       </c>
       <c r="D30" t="n">
-        <v>11.5</v>
+        <v>15.8</v>
       </c>
       <c r="E30" t="n">
-        <v>14.9</v>
+        <v>18.3</v>
       </c>
       <c r="F30" t="n">
-        <v>-6.8</v>
+        <v>1.1</v>
       </c>
       <c r="G30" t="n">
-        <v>40175.8</v>
+        <v>70325.89999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>9.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7633.099999999999</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9540.799999999996</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.8</v>
+        <v>35.7</v>
       </c>
       <c r="C31" t="n">
-        <v>43480.7</v>
+        <v>66476.89999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>14.3</v>
+        <v>15.3</v>
       </c>
       <c r="E31" t="n">
-        <v>17.3</v>
+        <v>16.8</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.9</v>
+        <v>3.3</v>
       </c>
       <c r="G31" t="n">
-        <v>51500.9</v>
+        <v>80064.7</v>
       </c>
       <c r="H31" t="n">
-        <v>7.3</v>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7826.199999999997</v>
+      </c>
+      <c r="J31" t="n">
+        <v>9738.800000000003</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>38.2</v>
+        <v>34.3</v>
       </c>
       <c r="C32" t="n">
-        <v>51017.6</v>
+        <v>75619.3</v>
       </c>
       <c r="D32" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="E32" t="n">
-        <v>18.6</v>
+        <v>17.4</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.9</v>
+        <v>5.6</v>
       </c>
       <c r="G32" t="n">
-        <v>60785.1</v>
+        <v>91275.3</v>
       </c>
       <c r="H32" t="n">
-        <v>9</v>
+        <v>10.9</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9142.400000000009</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11210.60000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.4</v>
+        <v>32.9</v>
       </c>
       <c r="C33" t="n">
-        <v>58650.7</v>
+        <v>87792</v>
       </c>
       <c r="D33" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E33" t="n">
-        <v>18.3</v>
+        <v>17.1</v>
       </c>
       <c r="F33" t="n">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="G33" t="n">
-        <v>70325.89999999999</v>
+        <v>105374.1</v>
       </c>
       <c r="H33" t="n">
-        <v>9.5</v>
+        <v>11.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>12172.7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>14098.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.7</v>
+        <v>30.6</v>
       </c>
       <c r="C34" t="n">
-        <v>66476.89999999999</v>
+        <v>97590.3</v>
       </c>
       <c r="D34" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="E34" t="n">
-        <v>16.8</v>
+        <v>16.2</v>
       </c>
       <c r="F34" t="n">
-        <v>3.3</v>
+        <v>5.8</v>
       </c>
       <c r="G34" t="n">
-        <v>80064.7</v>
+        <v>117601.3</v>
       </c>
       <c r="H34" t="n">
-        <v>9.699999999999999</v>
+        <v>10.9</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9798.300000000003</v>
+      </c>
+      <c r="J34" t="n">
+        <v>12227.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19</v>
+        <v>41.6</v>
       </c>
       <c r="C35" t="n">
-        <v>84979.3</v>
+        <v>14412.2</v>
       </c>
       <c r="D35" t="n">
-        <v>14.6</v>
+        <v>30.6</v>
       </c>
       <c r="E35" t="n">
-        <v>14.3</v>
+        <v>25.1</v>
       </c>
       <c r="F35" t="n">
-        <v>14.1</v>
+        <v>44.3</v>
       </c>
       <c r="G35" t="n">
-        <v>103765.4</v>
+        <v>17586.8</v>
       </c>
       <c r="H35" t="n">
-        <v>17.4</v>
+        <v>32.5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>14412.2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>17586.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>18.8</v>
+        <v>30.5</v>
       </c>
       <c r="C36" t="n">
-        <v>98056.10000000001</v>
+        <v>23067.3</v>
       </c>
       <c r="D36" t="n">
-        <v>13.2</v>
+        <v>25.8</v>
       </c>
       <c r="E36" t="n">
-        <v>13.1</v>
+        <v>21.4</v>
       </c>
       <c r="F36" t="n">
-        <v>11.1</v>
+        <v>39.6</v>
       </c>
       <c r="G36" t="n">
-        <v>118749.2</v>
+        <v>28092.7</v>
       </c>
       <c r="H36" t="n">
-        <v>15.4</v>
+        <v>29.9</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8655.099999999999</v>
+      </c>
+      <c r="J36" t="n">
+        <v>10505.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.8</v>
+        <v>24.5</v>
       </c>
       <c r="C37" t="n">
-        <v>108042.4</v>
+        <v>30773.5</v>
       </c>
       <c r="D37" t="n">
-        <v>12</v>
+        <v>23.1</v>
       </c>
       <c r="E37" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="F37" t="n">
-        <v>8.300000000000001</v>
+        <v>33.8</v>
       </c>
       <c r="G37" t="n">
-        <v>130883.5</v>
+        <v>37638.1</v>
       </c>
       <c r="H37" t="n">
-        <v>14.1</v>
+        <v>27.6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7706.200000000001</v>
+      </c>
+      <c r="J37" t="n">
+        <v>9545.399999999998</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>41.6</v>
+        <v>24.2</v>
       </c>
       <c r="C38" t="n">
-        <v>14412.2</v>
+        <v>39376.9</v>
       </c>
       <c r="D38" t="n">
-        <v>30.6</v>
+        <v>19.9</v>
       </c>
       <c r="E38" t="n">
-        <v>25.1</v>
+        <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>44.3</v>
+        <v>28.2</v>
       </c>
       <c r="G38" t="n">
-        <v>17586.8</v>
+        <v>48238.9</v>
       </c>
       <c r="H38" t="n">
-        <v>32.5</v>
+        <v>24.7</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8603.400000000001</v>
+      </c>
+      <c r="J38" t="n">
+        <v>10600.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30.5</v>
+        <v>23.5</v>
       </c>
       <c r="C39" t="n">
-        <v>23067.3</v>
+        <v>50262.7</v>
       </c>
       <c r="D39" t="n">
-        <v>25.8</v>
+        <v>18.7</v>
       </c>
       <c r="E39" t="n">
-        <v>21.4</v>
+        <v>16.7</v>
       </c>
       <c r="F39" t="n">
-        <v>39.6</v>
+        <v>24.1</v>
       </c>
       <c r="G39" t="n">
-        <v>28092.7</v>
+        <v>61132.5</v>
       </c>
       <c r="H39" t="n">
-        <v>29.9</v>
+        <v>23.2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>10885.8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>12893.6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.5</v>
+        <v>23.7</v>
       </c>
       <c r="C40" t="n">
-        <v>30773.5</v>
+        <v>58130</v>
       </c>
       <c r="D40" t="n">
-        <v>23.1</v>
+        <v>17.6</v>
       </c>
       <c r="E40" t="n">
-        <v>20</v>
+        <v>15.8</v>
       </c>
       <c r="F40" t="n">
-        <v>33.8</v>
+        <v>21.6</v>
       </c>
       <c r="G40" t="n">
-        <v>37638.1</v>
+        <v>71108.10000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>27.6</v>
+        <v>21.9</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7867.300000000003</v>
+      </c>
+      <c r="J40" t="n">
+        <v>9975.600000000006</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>24.2</v>
+        <v>22.4</v>
       </c>
       <c r="C41" t="n">
-        <v>39376.9</v>
+        <v>66340</v>
       </c>
       <c r="D41" t="n">
-        <v>19.9</v>
+        <v>15.9</v>
       </c>
       <c r="E41" t="n">
-        <v>17</v>
+        <v>14.2</v>
       </c>
       <c r="F41" t="n">
-        <v>28.2</v>
+        <v>19.4</v>
       </c>
       <c r="G41" t="n">
-        <v>48238.9</v>
+        <v>81226.7</v>
       </c>
       <c r="H41" t="n">
-        <v>24.7</v>
+        <v>19.7</v>
+      </c>
+      <c r="I41" t="n">
+        <v>8210</v>
+      </c>
+      <c r="J41" t="n">
+        <v>10118.59999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>23.5</v>
+        <v>20.2</v>
       </c>
       <c r="C42" t="n">
-        <v>50262.7</v>
+        <v>75041.8</v>
       </c>
       <c r="D42" t="n">
-        <v>18.7</v>
+        <v>15.2</v>
       </c>
       <c r="E42" t="n">
-        <v>16.7</v>
+        <v>14.5</v>
       </c>
       <c r="F42" t="n">
-        <v>24.1</v>
+        <v>15.6</v>
       </c>
       <c r="G42" t="n">
-        <v>61132.5</v>
+        <v>91870.89999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>23.2</v>
+        <v>18.5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8701.800000000003</v>
+      </c>
+      <c r="J42" t="n">
+        <v>10644.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>23.7</v>
+        <v>19</v>
       </c>
       <c r="C43" t="n">
-        <v>58130</v>
+        <v>84979.3</v>
       </c>
       <c r="D43" t="n">
-        <v>17.6</v>
+        <v>14.6</v>
       </c>
       <c r="E43" t="n">
-        <v>15.8</v>
+        <v>14.3</v>
       </c>
       <c r="F43" t="n">
-        <v>21.6</v>
+        <v>14.1</v>
       </c>
       <c r="G43" t="n">
-        <v>71108.10000000001</v>
+        <v>103765.4</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9</v>
+        <v>17.4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9937.5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>11894.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>22.4</v>
+        <v>18.8</v>
       </c>
       <c r="C44" t="n">
-        <v>66340</v>
+        <v>98056.10000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>15.9</v>
+        <v>13.2</v>
       </c>
       <c r="E44" t="n">
-        <v>14.2</v>
+        <v>13.1</v>
       </c>
       <c r="F44" t="n">
-        <v>19.4</v>
+        <v>11.1</v>
       </c>
       <c r="G44" t="n">
-        <v>81226.7</v>
+        <v>118749.2</v>
       </c>
       <c r="H44" t="n">
-        <v>19.7</v>
+        <v>15.4</v>
+      </c>
+      <c r="I44" t="n">
+        <v>13076.8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>14983.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.2</v>
+        <v>17.8</v>
       </c>
       <c r="C45" t="n">
-        <v>75041.8</v>
+        <v>108042.4</v>
       </c>
       <c r="D45" t="n">
-        <v>15.2</v>
+        <v>12</v>
       </c>
       <c r="E45" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="F45" t="n">
-        <v>15.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>91870.89999999999</v>
+        <v>130883.5</v>
       </c>
       <c r="H45" t="n">
-        <v>18.5</v>
+        <v>14.1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9986.299999999988</v>
+      </c>
+      <c r="J45" t="n">
+        <v>12134.3</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/国内贸易/网上零售额.xlsx
+++ b/data_month/zb/国内贸易/网上零售额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,1511 +469,1685 @@
           <t>网上零售额_累计增长</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>实物商品网上零售额</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>网上零售额</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.3</v>
+        <v>36.1</v>
       </c>
       <c r="C2" t="n">
-        <v>9073.200000000001</v>
+        <v>54140.7</v>
       </c>
       <c r="D2" t="n">
-        <v>35.6</v>
+        <v>26.7</v>
       </c>
       <c r="E2" t="n">
-        <v>33.1</v>
+        <v>27.2</v>
       </c>
       <c r="F2" t="n">
-        <v>36.8</v>
+        <v>22.5</v>
       </c>
       <c r="G2" t="n">
-        <v>12271.3</v>
+        <v>70539.10000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9073.200000000001</v>
-      </c>
-      <c r="J2" t="n">
-        <v>12271.3</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.5</v>
+        <v>36.3</v>
       </c>
       <c r="C3" t="n">
-        <v>14567.1</v>
+        <v>62710.3</v>
       </c>
       <c r="D3" t="n">
-        <v>34.4</v>
+        <v>25.4</v>
       </c>
       <c r="E3" t="n">
-        <v>33.3</v>
+        <v>25.8</v>
       </c>
       <c r="F3" t="n">
-        <v>33.9</v>
+        <v>21.2</v>
       </c>
       <c r="G3" t="n">
-        <v>19318.5</v>
+        <v>80688.60000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5493.9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7047.200000000001</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.9</v>
+        <v>33.8</v>
       </c>
       <c r="C4" t="n">
-        <v>19494.9</v>
+        <v>70198.2</v>
       </c>
       <c r="D4" t="n">
-        <v>31.2</v>
+        <v>25.4</v>
       </c>
       <c r="E4" t="n">
-        <v>31.1</v>
+        <v>25.9</v>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>25791.5</v>
+        <v>90065</v>
       </c>
       <c r="H4" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4927.800000000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6473</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.4</v>
+        <v>57.3</v>
       </c>
       <c r="C5" t="n">
-        <v>24819</v>
+        <v>9073.200000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>35.6</v>
       </c>
       <c r="E5" t="n">
-        <v>30.7</v>
+        <v>33.1</v>
       </c>
       <c r="F5" t="n">
-        <v>24.9</v>
+        <v>36.8</v>
       </c>
       <c r="G5" t="n">
-        <v>32690.6</v>
+        <v>12271.3</v>
       </c>
       <c r="H5" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5324.099999999999</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6899.099999999999</v>
+        <v>37.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.3</v>
+        <v>46.5</v>
       </c>
       <c r="C6" t="n">
-        <v>31276.6</v>
+        <v>14567.1</v>
       </c>
       <c r="D6" t="n">
-        <v>29.8</v>
+        <v>34.4</v>
       </c>
       <c r="E6" t="n">
-        <v>30.7</v>
+        <v>33.3</v>
       </c>
       <c r="F6" t="n">
-        <v>24.1</v>
+        <v>33.9</v>
       </c>
       <c r="G6" t="n">
-        <v>40810</v>
+        <v>19318.5</v>
       </c>
       <c r="H6" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6457.599999999999</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8119.400000000001</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.6</v>
+        <v>44.9</v>
       </c>
       <c r="C7" t="n">
-        <v>36460.9</v>
+        <v>19494.9</v>
       </c>
       <c r="D7" t="n">
-        <v>29.1</v>
+        <v>31.2</v>
       </c>
       <c r="E7" t="n">
-        <v>29.7</v>
+        <v>31.1</v>
       </c>
       <c r="F7" t="n">
-        <v>23.9</v>
+        <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>47862.7</v>
+        <v>25791.5</v>
       </c>
       <c r="H7" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5184.300000000003</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7052.699999999997</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.7</v>
+        <v>42.4</v>
       </c>
       <c r="C8" t="n">
-        <v>41993.1</v>
+        <v>24819</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>30.7</v>
       </c>
       <c r="F8" t="n">
-        <v>23.4</v>
+        <v>24.9</v>
       </c>
       <c r="G8" t="n">
-        <v>55195.5</v>
+        <v>32690.6</v>
       </c>
       <c r="H8" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5532.199999999997</v>
-      </c>
-      <c r="J8" t="n">
-        <v>7332.800000000003</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43.8</v>
+        <v>42.3</v>
       </c>
       <c r="C9" t="n">
-        <v>47937.7</v>
+        <v>31276.6</v>
       </c>
       <c r="D9" t="n">
-        <v>27.7</v>
+        <v>29.8</v>
       </c>
       <c r="E9" t="n">
-        <v>27.7</v>
+        <v>30.7</v>
       </c>
       <c r="F9" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="G9" t="n">
-        <v>62784.6</v>
+        <v>40810</v>
       </c>
       <c r="H9" t="n">
-        <v>27</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5944.599999999999</v>
-      </c>
-      <c r="J9" t="n">
-        <v>7589.099999999999</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.1</v>
+        <v>41.6</v>
       </c>
       <c r="C10" t="n">
-        <v>54140.7</v>
+        <v>36460.9</v>
       </c>
       <c r="D10" t="n">
-        <v>26.7</v>
+        <v>29.1</v>
       </c>
       <c r="E10" t="n">
-        <v>27.2</v>
+        <v>29.7</v>
       </c>
       <c r="F10" t="n">
-        <v>22.5</v>
+        <v>23.9</v>
       </c>
       <c r="G10" t="n">
-        <v>70539.10000000001</v>
+        <v>47862.7</v>
       </c>
       <c r="H10" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6203</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7754.500000000007</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.3</v>
+        <v>42.7</v>
       </c>
       <c r="C11" t="n">
-        <v>62710.3</v>
+        <v>41993.1</v>
       </c>
       <c r="D11" t="n">
-        <v>25.4</v>
+        <v>28.6</v>
       </c>
       <c r="E11" t="n">
-        <v>25.8</v>
+        <v>29</v>
       </c>
       <c r="F11" t="n">
-        <v>21.2</v>
+        <v>23.4</v>
       </c>
       <c r="G11" t="n">
-        <v>80688.60000000001</v>
+        <v>55195.5</v>
       </c>
       <c r="H11" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>8569.600000000006</v>
-      </c>
-      <c r="J11" t="n">
-        <v>10149.5</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33.8</v>
+        <v>43.8</v>
       </c>
       <c r="C12" t="n">
-        <v>70198.2</v>
+        <v>47937.7</v>
       </c>
       <c r="D12" t="n">
-        <v>25.4</v>
+        <v>27.7</v>
       </c>
       <c r="E12" t="n">
-        <v>25.9</v>
+        <v>27.7</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>23.3</v>
       </c>
       <c r="G12" t="n">
-        <v>90065</v>
+        <v>62784.6</v>
       </c>
       <c r="H12" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7487.899999999994</v>
-      </c>
-      <c r="J12" t="n">
-        <v>9376.399999999994</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.2</v>
+        <v>34.8</v>
       </c>
       <c r="C13" t="n">
-        <v>10901</v>
+        <v>65172.2</v>
       </c>
       <c r="D13" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="E13" t="n">
-        <v>20.8</v>
+        <v>16.6</v>
       </c>
       <c r="F13" t="n">
-        <v>15.6</v>
+        <v>7.1</v>
       </c>
       <c r="G13" t="n">
-        <v>13982.8</v>
+        <v>82307.10000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10901</v>
-      </c>
-      <c r="J13" t="n">
-        <v>13982.8</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.6</v>
+        <v>29.6</v>
       </c>
       <c r="C14" t="n">
-        <v>17772</v>
+        <v>76032.3</v>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>19.7</v>
       </c>
       <c r="E14" t="n">
-        <v>21.3</v>
+        <v>19.8</v>
       </c>
       <c r="F14" t="n">
-        <v>19.1</v>
+        <v>16.5</v>
       </c>
       <c r="G14" t="n">
-        <v>22378.7</v>
+        <v>94957.8</v>
       </c>
       <c r="H14" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6871</v>
-      </c>
-      <c r="J14" t="n">
-        <v>8395.900000000001</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.7</v>
+        <v>30.9</v>
       </c>
       <c r="C15" t="n">
-        <v>23933.2</v>
+        <v>85239.5</v>
       </c>
       <c r="D15" t="n">
-        <v>22.2</v>
+        <v>19.5</v>
       </c>
       <c r="E15" t="n">
-        <v>21.2</v>
+        <v>19.8</v>
       </c>
       <c r="F15" t="n">
-        <v>23.7</v>
+        <v>15.4</v>
       </c>
       <c r="G15" t="n">
-        <v>30439.3</v>
+        <v>106324.2</v>
       </c>
       <c r="H15" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6161.200000000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>8060.599999999999</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.5</v>
+        <v>20.2</v>
       </c>
       <c r="C16" t="n">
-        <v>30414.5</v>
+        <v>10901</v>
       </c>
       <c r="D16" t="n">
-        <v>21.7</v>
+        <v>19.5</v>
       </c>
       <c r="E16" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="F16" t="n">
-        <v>21.2</v>
+        <v>15.6</v>
       </c>
       <c r="G16" t="n">
-        <v>38641.3</v>
+        <v>13982.8</v>
       </c>
       <c r="H16" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6481.299999999999</v>
-      </c>
-      <c r="J16" t="n">
-        <v>8202.000000000004</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.3</v>
+        <v>24.6</v>
       </c>
       <c r="C17" t="n">
-        <v>38164.9</v>
+        <v>17772</v>
       </c>
       <c r="D17" t="n">
-        <v>21.6</v>
+        <v>21</v>
       </c>
       <c r="E17" t="n">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="F17" t="n">
-        <v>21.4</v>
+        <v>19.1</v>
       </c>
       <c r="G17" t="n">
-        <v>48160.6</v>
+        <v>22378.7</v>
       </c>
       <c r="H17" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7750.400000000001</v>
-      </c>
-      <c r="J17" t="n">
-        <v>9519.299999999996</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>29.9</v>
+        <v>26.7</v>
       </c>
       <c r="C18" t="n">
-        <v>44233.3</v>
+        <v>23933.2</v>
       </c>
       <c r="D18" t="n">
-        <v>20.9</v>
+        <v>22.2</v>
       </c>
       <c r="E18" t="n">
-        <v>20.2</v>
+        <v>21.2</v>
       </c>
       <c r="F18" t="n">
-        <v>20.4</v>
+        <v>23.7</v>
       </c>
       <c r="G18" t="n">
-        <v>55972.5</v>
+        <v>30439.3</v>
       </c>
       <c r="H18" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6068.400000000001</v>
-      </c>
-      <c r="J18" t="n">
-        <v>7811.900000000001</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.6</v>
+        <v>28.5</v>
       </c>
       <c r="C19" t="n">
-        <v>50745.5</v>
+        <v>30414.5</v>
       </c>
       <c r="D19" t="n">
-        <v>20.8</v>
+        <v>21.7</v>
       </c>
       <c r="E19" t="n">
-        <v>20.2</v>
+        <v>21.2</v>
       </c>
       <c r="F19" t="n">
-        <v>19.7</v>
+        <v>21.2</v>
       </c>
       <c r="G19" t="n">
-        <v>64393</v>
+        <v>38641.3</v>
       </c>
       <c r="H19" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6512.199999999997</v>
-      </c>
-      <c r="J19" t="n">
-        <v>8420.5</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="C20" t="n">
-        <v>57776.9</v>
+        <v>38164.9</v>
       </c>
       <c r="D20" t="n">
-        <v>20.5</v>
+        <v>21.6</v>
       </c>
       <c r="E20" t="n">
-        <v>20.3</v>
+        <v>20.9</v>
       </c>
       <c r="F20" t="n">
-        <v>18.6</v>
+        <v>21.4</v>
       </c>
       <c r="G20" t="n">
-        <v>73237</v>
+        <v>48160.6</v>
       </c>
       <c r="H20" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7031.400000000001</v>
-      </c>
-      <c r="J20" t="n">
-        <v>8844</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>34.8</v>
+        <v>29.9</v>
       </c>
       <c r="C21" t="n">
-        <v>65172.2</v>
+        <v>44233.3</v>
       </c>
       <c r="D21" t="n">
-        <v>19.8</v>
+        <v>20.9</v>
       </c>
       <c r="E21" t="n">
-        <v>16.6</v>
+        <v>20.2</v>
       </c>
       <c r="F21" t="n">
-        <v>7.1</v>
+        <v>20.4</v>
       </c>
       <c r="G21" t="n">
-        <v>82307.10000000001</v>
+        <v>55972.5</v>
       </c>
       <c r="H21" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7395.299999999996</v>
-      </c>
-      <c r="J21" t="n">
-        <v>9070.100000000006</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.6</v>
+        <v>30.6</v>
       </c>
       <c r="C22" t="n">
-        <v>76032.3</v>
+        <v>50745.5</v>
       </c>
       <c r="D22" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="F22" t="n">
         <v>19.7</v>
       </c>
-      <c r="E22" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="F22" t="n">
-        <v>16.5</v>
-      </c>
       <c r="G22" t="n">
-        <v>94957.8</v>
+        <v>64393</v>
       </c>
       <c r="H22" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="I22" t="n">
-        <v>10860.10000000001</v>
-      </c>
-      <c r="J22" t="n">
-        <v>12650.7</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.9</v>
+        <v>28.9</v>
       </c>
       <c r="C23" t="n">
-        <v>85239.5</v>
+        <v>57776.9</v>
       </c>
       <c r="D23" t="n">
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
       <c r="E23" t="n">
-        <v>19.8</v>
+        <v>20.3</v>
       </c>
       <c r="F23" t="n">
-        <v>15.4</v>
+        <v>18.6</v>
       </c>
       <c r="G23" t="n">
-        <v>106324.2</v>
+        <v>73237</v>
       </c>
       <c r="H23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9207.199999999997</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11366.39999999999</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26.4</v>
+        <v>34.3</v>
       </c>
       <c r="C24" t="n">
-        <v>11233.2</v>
+        <v>75619.3</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>7.5</v>
+        <v>17.4</v>
       </c>
       <c r="F24" t="n">
-        <v>-18.1</v>
+        <v>5.6</v>
       </c>
       <c r="G24" t="n">
-        <v>13712</v>
+        <v>91275.3</v>
       </c>
       <c r="H24" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11233.2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>13712</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="C25" t="n">
-        <v>18535.7</v>
+        <v>87792</v>
       </c>
       <c r="D25" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E25" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F25" t="n">
         <v>5.9</v>
       </c>
-      <c r="E25" t="n">
-        <v>10</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-15.1</v>
-      </c>
       <c r="G25" t="n">
-        <v>22168.8</v>
+        <v>105374.1</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7302.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>8456.799999999999</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>36.7</v>
+        <v>30.6</v>
       </c>
       <c r="C26" t="n">
-        <v>25751</v>
+        <v>97590.3</v>
       </c>
       <c r="D26" t="n">
-        <v>8.6</v>
+        <v>14.8</v>
       </c>
       <c r="E26" t="n">
-        <v>12.4</v>
+        <v>16.2</v>
       </c>
       <c r="F26" t="n">
-        <v>-12</v>
+        <v>5.8</v>
       </c>
       <c r="G26" t="n">
-        <v>30698</v>
+        <v>117601.3</v>
       </c>
       <c r="H26" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I26" t="n">
-        <v>7215.299999999999</v>
-      </c>
-      <c r="J26" t="n">
-        <v>8529.200000000001</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>37</v>
+        <v>26.4</v>
       </c>
       <c r="C27" t="n">
-        <v>33738.8</v>
+        <v>11233.2</v>
       </c>
       <c r="D27" t="n">
-        <v>11.5</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>14.9</v>
+        <v>7.5</v>
       </c>
       <c r="F27" t="n">
-        <v>-6.8</v>
+        <v>-18.1</v>
       </c>
       <c r="G27" t="n">
-        <v>40175.8</v>
+        <v>13712</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I27" t="n">
-        <v>7987.800000000003</v>
-      </c>
-      <c r="J27" t="n">
-        <v>9477.800000000003</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.8</v>
+        <v>32.7</v>
       </c>
       <c r="C28" t="n">
-        <v>43480.7</v>
+        <v>18535.7</v>
       </c>
       <c r="D28" t="n">
-        <v>14.3</v>
+        <v>5.9</v>
       </c>
       <c r="E28" t="n">
-        <v>17.3</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.9</v>
+        <v>-15.1</v>
       </c>
       <c r="G28" t="n">
-        <v>51500.9</v>
+        <v>22168.8</v>
       </c>
       <c r="H28" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9741.899999999994</v>
-      </c>
-      <c r="J28" t="n">
-        <v>11325.1</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>38.2</v>
+        <v>36.7</v>
       </c>
       <c r="C29" t="n">
-        <v>51017.6</v>
+        <v>25751</v>
       </c>
       <c r="D29" t="n">
-        <v>15.7</v>
+        <v>8.6</v>
       </c>
       <c r="E29" t="n">
-        <v>18.6</v>
+        <v>12.4</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.9</v>
+        <v>-12</v>
       </c>
       <c r="G29" t="n">
-        <v>60785.1</v>
+        <v>30698</v>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
-      </c>
-      <c r="I29" t="n">
-        <v>7536.900000000001</v>
-      </c>
-      <c r="J29" t="n">
-        <v>9284.199999999997</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>35.4</v>
+        <v>37</v>
       </c>
       <c r="C30" t="n">
-        <v>58650.7</v>
+        <v>33738.8</v>
       </c>
       <c r="D30" t="n">
-        <v>15.8</v>
+        <v>11.5</v>
       </c>
       <c r="E30" t="n">
-        <v>18.3</v>
+        <v>14.9</v>
       </c>
       <c r="F30" t="n">
-        <v>1.1</v>
+        <v>-6.8</v>
       </c>
       <c r="G30" t="n">
-        <v>70325.89999999999</v>
+        <v>40175.8</v>
       </c>
       <c r="H30" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="I30" t="n">
-        <v>7633.099999999999</v>
-      </c>
-      <c r="J30" t="n">
-        <v>9540.799999999996</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.7</v>
+        <v>38.8</v>
       </c>
       <c r="C31" t="n">
-        <v>66476.89999999999</v>
+        <v>43480.7</v>
       </c>
       <c r="D31" t="n">
-        <v>15.3</v>
+        <v>14.3</v>
       </c>
       <c r="E31" t="n">
-        <v>16.8</v>
+        <v>17.3</v>
       </c>
       <c r="F31" t="n">
-        <v>3.3</v>
+        <v>-2.9</v>
       </c>
       <c r="G31" t="n">
-        <v>80064.7</v>
+        <v>51500.9</v>
       </c>
       <c r="H31" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7826.199999999997</v>
-      </c>
-      <c r="J31" t="n">
-        <v>9738.800000000003</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34.3</v>
+        <v>38.2</v>
       </c>
       <c r="C32" t="n">
-        <v>75619.3</v>
+        <v>51017.6</v>
       </c>
       <c r="D32" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="E32" t="n">
-        <v>17.4</v>
+        <v>18.6</v>
       </c>
       <c r="F32" t="n">
-        <v>5.6</v>
+        <v>-0.9</v>
       </c>
       <c r="G32" t="n">
-        <v>91275.3</v>
+        <v>60785.1</v>
       </c>
       <c r="H32" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9142.400000000009</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11210.60000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32.9</v>
+        <v>35.4</v>
       </c>
       <c r="C33" t="n">
-        <v>87792</v>
+        <v>58650.7</v>
       </c>
       <c r="D33" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E33" t="n">
-        <v>17.1</v>
+        <v>18.3</v>
       </c>
       <c r="F33" t="n">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
       <c r="G33" t="n">
-        <v>105374.1</v>
+        <v>70325.89999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12172.7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>14098.8</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.6</v>
+        <v>35.7</v>
       </c>
       <c r="C34" t="n">
-        <v>97590.3</v>
+        <v>66476.89999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="E34" t="n">
-        <v>16.2</v>
+        <v>16.8</v>
       </c>
       <c r="F34" t="n">
-        <v>5.8</v>
+        <v>3.3</v>
       </c>
       <c r="G34" t="n">
-        <v>117601.3</v>
+        <v>80064.7</v>
       </c>
       <c r="H34" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="I34" t="n">
-        <v>9798.300000000003</v>
-      </c>
-      <c r="J34" t="n">
-        <v>12227.2</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>41.6</v>
+        <v>19</v>
       </c>
       <c r="C35" t="n">
-        <v>14412.2</v>
+        <v>84979.3</v>
       </c>
       <c r="D35" t="n">
-        <v>30.6</v>
+        <v>14.6</v>
       </c>
       <c r="E35" t="n">
-        <v>25.1</v>
+        <v>14.3</v>
       </c>
       <c r="F35" t="n">
-        <v>44.3</v>
+        <v>14.1</v>
       </c>
       <c r="G35" t="n">
-        <v>17586.8</v>
+        <v>103765.4</v>
       </c>
       <c r="H35" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="I35" t="n">
-        <v>14412.2</v>
-      </c>
-      <c r="J35" t="n">
-        <v>17586.8</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>30.5</v>
+        <v>18.8</v>
       </c>
       <c r="C36" t="n">
-        <v>23067.3</v>
+        <v>98056.10000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>25.8</v>
+        <v>13.2</v>
       </c>
       <c r="E36" t="n">
-        <v>21.4</v>
+        <v>13.1</v>
       </c>
       <c r="F36" t="n">
-        <v>39.6</v>
+        <v>11.1</v>
       </c>
       <c r="G36" t="n">
-        <v>28092.7</v>
+        <v>118749.2</v>
       </c>
       <c r="H36" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="I36" t="n">
-        <v>8655.099999999999</v>
-      </c>
-      <c r="J36" t="n">
-        <v>10505.9</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.5</v>
+        <v>17.8</v>
       </c>
       <c r="C37" t="n">
-        <v>30773.5</v>
+        <v>108042.4</v>
       </c>
       <c r="D37" t="n">
-        <v>23.1</v>
+        <v>12</v>
       </c>
       <c r="E37" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="F37" t="n">
-        <v>33.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>37638.1</v>
+        <v>130883.5</v>
       </c>
       <c r="H37" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7706.200000000001</v>
-      </c>
-      <c r="J37" t="n">
-        <v>9545.399999999998</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>24.2</v>
+        <v>41.6</v>
       </c>
       <c r="C38" t="n">
-        <v>39376.9</v>
+        <v>14412.2</v>
       </c>
       <c r="D38" t="n">
-        <v>19.9</v>
+        <v>30.6</v>
       </c>
       <c r="E38" t="n">
-        <v>17</v>
+        <v>25.1</v>
       </c>
       <c r="F38" t="n">
-        <v>28.2</v>
+        <v>44.3</v>
       </c>
       <c r="G38" t="n">
-        <v>48238.9</v>
+        <v>17586.8</v>
       </c>
       <c r="H38" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="I38" t="n">
-        <v>8603.400000000001</v>
-      </c>
-      <c r="J38" t="n">
-        <v>10600.8</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>23.5</v>
+        <v>30.5</v>
       </c>
       <c r="C39" t="n">
-        <v>50262.7</v>
+        <v>23067.3</v>
       </c>
       <c r="D39" t="n">
-        <v>18.7</v>
+        <v>25.8</v>
       </c>
       <c r="E39" t="n">
-        <v>16.7</v>
+        <v>21.4</v>
       </c>
       <c r="F39" t="n">
-        <v>24.1</v>
+        <v>39.6</v>
       </c>
       <c r="G39" t="n">
-        <v>61132.5</v>
+        <v>28092.7</v>
       </c>
       <c r="H39" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>10885.8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>12893.6</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>23.7</v>
+        <v>24.5</v>
       </c>
       <c r="C40" t="n">
-        <v>58130</v>
+        <v>30773.5</v>
       </c>
       <c r="D40" t="n">
-        <v>17.6</v>
+        <v>23.1</v>
       </c>
       <c r="E40" t="n">
-        <v>15.8</v>
+        <v>20</v>
       </c>
       <c r="F40" t="n">
-        <v>21.6</v>
+        <v>33.8</v>
       </c>
       <c r="G40" t="n">
-        <v>71108.10000000001</v>
+        <v>37638.1</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="I40" t="n">
-        <v>7867.300000000003</v>
-      </c>
-      <c r="J40" t="n">
-        <v>9975.600000000006</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>22.4</v>
+        <v>24.2</v>
       </c>
       <c r="C41" t="n">
-        <v>66340</v>
+        <v>39376.9</v>
       </c>
       <c r="D41" t="n">
-        <v>15.9</v>
+        <v>19.9</v>
       </c>
       <c r="E41" t="n">
-        <v>14.2</v>
+        <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>19.4</v>
+        <v>28.2</v>
       </c>
       <c r="G41" t="n">
-        <v>81226.7</v>
+        <v>48238.9</v>
       </c>
       <c r="H41" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="I41" t="n">
-        <v>8210</v>
-      </c>
-      <c r="J41" t="n">
-        <v>10118.59999999999</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.2</v>
+        <v>23.5</v>
       </c>
       <c r="C42" t="n">
-        <v>75041.8</v>
+        <v>50262.7</v>
       </c>
       <c r="D42" t="n">
-        <v>15.2</v>
+        <v>18.7</v>
       </c>
       <c r="E42" t="n">
-        <v>14.5</v>
+        <v>16.7</v>
       </c>
       <c r="F42" t="n">
-        <v>15.6</v>
+        <v>24.1</v>
       </c>
       <c r="G42" t="n">
-        <v>91870.89999999999</v>
+        <v>61132.5</v>
       </c>
       <c r="H42" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="I42" t="n">
-        <v>8701.800000000003</v>
-      </c>
-      <c r="J42" t="n">
-        <v>10644.2</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19</v>
+        <v>23.7</v>
       </c>
       <c r="C43" t="n">
-        <v>84979.3</v>
+        <v>58130</v>
       </c>
       <c r="D43" t="n">
-        <v>14.6</v>
+        <v>17.6</v>
       </c>
       <c r="E43" t="n">
-        <v>14.3</v>
+        <v>15.8</v>
       </c>
       <c r="F43" t="n">
-        <v>14.1</v>
+        <v>21.6</v>
       </c>
       <c r="G43" t="n">
-        <v>103765.4</v>
+        <v>71108.10000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="I43" t="n">
-        <v>9937.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>11894.5</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>18.8</v>
+        <v>22.4</v>
       </c>
       <c r="C44" t="n">
-        <v>98056.10000000001</v>
+        <v>66340</v>
       </c>
       <c r="D44" t="n">
-        <v>13.2</v>
+        <v>15.9</v>
       </c>
       <c r="E44" t="n">
-        <v>13.1</v>
+        <v>14.2</v>
       </c>
       <c r="F44" t="n">
-        <v>11.1</v>
+        <v>19.4</v>
       </c>
       <c r="G44" t="n">
-        <v>118749.2</v>
+        <v>81226.7</v>
       </c>
       <c r="H44" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="I44" t="n">
-        <v>13076.8</v>
-      </c>
-      <c r="J44" t="n">
-        <v>14983.8</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17.8</v>
+        <v>20.2</v>
       </c>
       <c r="C45" t="n">
-        <v>108042.4</v>
+        <v>75041.8</v>
       </c>
       <c r="D45" t="n">
-        <v>12</v>
+        <v>15.2</v>
       </c>
       <c r="E45" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="F45" t="n">
-        <v>8.300000000000001</v>
+        <v>15.6</v>
       </c>
       <c r="G45" t="n">
-        <v>130883.5</v>
+        <v>91870.89999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>9986.299999999988</v>
-      </c>
-      <c r="J45" t="n">
-        <v>12134.3</v>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C46" t="n">
+        <v>94505.7</v>
+      </c>
+      <c r="D46" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G46" t="n">
+        <v>109542.4</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>108098.3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G47" t="n">
+        <v>124585</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>119642.1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>137853.2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C49" t="n">
+        <v>16371.1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G49" t="n">
+        <v>19558.2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>25256.5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E50" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G50" t="n">
+        <v>30129.6</v>
+      </c>
+      <c r="H50" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C51" t="n">
+        <v>32886.7</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="G51" t="n">
+        <v>38691.8</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>16</v>
+      </c>
+      <c r="C52" t="n">
+        <v>42718.3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="G52" t="n">
+        <v>49604.4</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C53" t="n">
+        <v>54493.2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G53" t="n">
+        <v>63006.5</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C54" t="n">
+        <v>63152.5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G54" t="n">
+        <v>73223.8</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C55" t="n">
+        <v>72413.5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4</v>
+      </c>
+      <c r="G55" t="n">
+        <v>84294.89999999999</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C56" t="n">
+        <v>82373.7</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G56" t="n">
+        <v>95884</v>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C57" t="n">
+        <v>17475.6</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4</v>
+      </c>
+      <c r="G57" t="n">
+        <v>20543.8</v>
+      </c>
+      <c r="H57" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C58" t="n">
+        <v>27835.1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="G58" t="n">
+        <v>32862.6</v>
+      </c>
+      <c r="H58" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>9</v>
+      </c>
+      <c r="C59" t="n">
+        <v>37164</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="E59" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F59" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G59" t="n">
+        <v>44108</v>
+      </c>
+      <c r="H59" t="n">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C60" t="n">
+        <v>48055</v>
+      </c>
+      <c r="D60" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E60" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="G60" t="n">
+        <v>56906</v>
+      </c>
+      <c r="H60" t="n">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C61" t="n">
+        <v>60623</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E61" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="F61" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="G61" t="n">
+        <v>71621</v>
+      </c>
+      <c r="H61" t="n">
+        <v>13.1</v>
       </c>
     </row>
   </sheetData>
